--- a/biology/Microbiologie/Bouillon_Clark_Lubs/Bouillon_Clark_Lubs.xlsx
+++ b/biology/Microbiologie/Bouillon_Clark_Lubs/Bouillon_Clark_Lubs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bouillon Clark Lubs est un milieu de culture. Il est également appelé milieu RM-VP, Rouge de Methyl (RM) ou Voges-Proskauer (VP).
 </t>
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il sert à mettre en évidence des voies fermentaires des entérobactéries :
 Voie du butan-2,3-diol (test VP) ;
@@ -543,7 +557,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se compose de 5g de peptone, 5g de glucose, 5g d'hydrogénophosphate de potassium et d'eau distillée. Le pH doit être égal à 7,5.
 </t>
@@ -574,7 +590,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut en mettre 15 g par litre. La stérilisation se fait de manière classique ou par filtration.
 </t>
@@ -605,7 +623,9 @@
           <t>Ensemencement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En milieu stérile, il faut rajouter 2-3 gouttes de suspension bactérienne à analyser puis laisser incuber de 24 à 48 heures à la température voulue (37 degrés en général).
 </t>
@@ -636,9 +656,11 @@
           <t>Révélation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La révélation du test VP se fait en ajoutant 2 gouttes de base forte (soude ou potasse) et d'α-naphtol au milieu en laissant le milieu oxygéné. Si le milieu se colore en rouge, la souche est VP+. Sinon, la souche est VP-[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La révélation du test VP se fait en ajoutant 2 gouttes de base forte (soude ou potasse) et d'α-naphtol au milieu en laissant le milieu oxygéné. Si le milieu se colore en rouge, la souche est VP+. Sinon, la souche est VP-.
 </t>
         </is>
       </c>
